--- a/Functional Units.xlsx
+++ b/Functional Units.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Drive</t>
   </si>
@@ -81,13 +81,22 @@
     <t>Lift</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>(D) Height</t>
-  </si>
-  <si>
-    <t>Speed</t>
+    <t>Height Setpoint</t>
+  </si>
+  <si>
+    <t>(D) Manual Control</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Lift Speed</t>
+  </si>
+  <si>
+    <t>High, Medum, Low, Manual</t>
+  </si>
+  <si>
+    <t>Break On, Break Off</t>
   </si>
 </sst>
 </file>
@@ -439,14 +448,14 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F13:F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,10 +570,22 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
